--- a/wbs.xlsx
+++ b/wbs.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>Table 1</t>
   </si>
@@ -68,7 +68,10 @@
     <t>git hub - wbs - begin JadP</t>
   </si>
   <si>
-    <t>o2-design JadP in basii</t>
+    <t>o2-design JadP in basii  convert getKeys:- getKeyData</t>
+  </si>
+  <si>
+    <t>—</t>
   </si>
   <si>
     <t>**02</t>
@@ -96,6 +99,48 @@
   </si>
   <si>
     <t>design ndsGet in BASII</t>
+  </si>
+  <si>
+    <t>jadT :-def jadT():</t>
+  </si>
+  <si>
+    <t>CODED</t>
+  </si>
+  <si>
+    <t>doTable :-def doTable():</t>
+  </si>
+  <si>
+    <t>table2 :-def table2():</t>
+  </si>
+  <si>
+    <t>getKeys :-</t>
+  </si>
+  <si>
+    <t>getKeyData :-</t>
+  </si>
+  <si>
+    <t>getFK :- /* of t.c {( t.c = v )} */</t>
+  </si>
+  <si>
+    <t>getFK2 :-</t>
+  </si>
+  <si>
+    <t>gfk3 :-</t>
+  </si>
+  <si>
+    <t>getTags :- "(" na ''' /* , ) ; */</t>
+  </si>
+  <si>
+    <t>getTagData :-</t>
+  </si>
+  <si>
+    <t>getTagFK :- /* of t.c {( t.c = v )}</t>
+  </si>
+  <si>
+    <t>getTagFK2 :-</t>
+  </si>
+  <si>
+    <t>gfkT3 :-</t>
   </si>
 </sst>
 </file>
@@ -106,7 +151,7 @@
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="59" formatCode="mmmm"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -118,13 +163,18 @@
       <name val="Helvetica"/>
     </font>
     <font>
+      <sz val="13"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
       <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -137,8 +187,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -150,6 +206,28 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="10"/>
       </right>
@@ -163,13 +241,212 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="14"/>
+      </left>
+      <right style="thick">
+        <color indexed="14"/>
+      </right>
+      <top style="thick">
+        <color indexed="14"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="14"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="15"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="15"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="14"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="15"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="15"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="15"/>
+      </right>
+      <top style="thin">
+        <color indexed="15"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="14"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="14"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="14"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="10"/>
       </left>
-      <right style="thin">
-        <color indexed="10"/>
+      <right style="thick">
+        <color indexed="14"/>
       </right>
-      <top style="thin">
-        <color indexed="11"/>
+      <top style="thick">
+        <color indexed="14"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -178,8 +455,8 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
-      <right style="thin">
-        <color indexed="10"/>
+      <right style="thick">
+        <color indexed="14"/>
       </right>
       <top/>
       <bottom/>
@@ -189,125 +466,8 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="12"/>
-      </left>
       <right style="thick">
-        <color indexed="12"/>
-      </right>
-      <top style="thick">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
+        <color indexed="14"/>
       </right>
       <top/>
       <bottom style="thin">
@@ -321,83 +481,107 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -417,8 +601,10 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ff007f00"/>
       <rgbColor rgb="ffd7fda5"/>
@@ -438,10 +624,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="404040"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="BFBFBF"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="499BC9"/>
@@ -635,14 +821,15 @@
   <a:objectDefaults>
     <a:spDef>
       <a:spPr>
-        <a:blipFill rotWithShape="1">
-          <a:blip r:embed="rId1"/>
-          <a:srcRect l="0" t="0" r="0" b="0"/>
-          <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
-        </a:blipFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst>
           <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
@@ -657,35 +844,29 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:effectLst>
-              <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="25400" dist="23998" dir="2700000">
-                <a:srgbClr val="000000">
-                  <a:alpha val="31034"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
             <a:uFillTx/>
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
@@ -938,14 +1119,20 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="6350" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
-        <a:effectLst/>
+        <a:effectLst>
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:srgbClr val="000000">
+              <a:alpha val="50000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
         <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
@@ -1234,7 +1421,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1515,7 +1702,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:J16"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1538,303 +1725,483 @@
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="4"/>
     </row>
     <row r="2" ht="20.55" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" t="s" s="3">
+      <c r="A2" s="5"/>
+      <c r="B2" t="s" s="5">
         <v>1</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
     </row>
     <row r="3" ht="20.35" customHeight="1">
-      <c r="A3" t="s" s="4">
+      <c r="A3" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
     </row>
     <row r="4" ht="20" customHeight="1">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
     </row>
     <row r="5" ht="21.5" customHeight="1">
-      <c r="A5" t="s" s="7">
+      <c r="A5" t="s" s="9">
         <v>3</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
     </row>
     <row r="6" ht="23" customHeight="1">
-      <c r="A6" t="s" s="10">
+      <c r="A6" t="s" s="12">
         <v>4</v>
       </c>
-      <c r="B6" t="s" s="10">
+      <c r="B6" t="s" s="12">
         <v>5</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" t="s" s="12">
+      <c r="C6" s="13"/>
+      <c r="D6" t="s" s="14">
         <v>6</v>
       </c>
-      <c r="E6" t="s" s="12">
+      <c r="E6" t="s" s="14">
         <v>7</v>
       </c>
-      <c r="F6" t="s" s="12">
+      <c r="F6" t="s" s="14">
         <v>8</v>
       </c>
-      <c r="G6" t="s" s="12">
+      <c r="G6" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="H6" t="s" s="12">
+      <c r="H6" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="I6" t="s" s="12">
+      <c r="I6" t="s" s="14">
         <v>11</v>
       </c>
-      <c r="J6" t="s" s="12">
+      <c r="J6" t="s" s="14">
         <v>12</v>
       </c>
     </row>
     <row r="7" ht="23" customHeight="1">
-      <c r="A7" t="s" s="10">
+      <c r="A7" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="15">
         <v>1</v>
       </c>
-      <c r="C7" t="s" s="14">
+      <c r="C7" t="s" s="16">
         <v>14</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="17">
         <v>27</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="17">
         <v>28</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="17">
         <v>1</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="17">
         <v>2</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="17">
         <v>3</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="17">
         <v>4</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="18">
         <v>5</v>
       </c>
     </row>
     <row r="8" ht="95" customHeight="1">
-      <c r="A8" t="s" s="10">
+      <c r="A8" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="15">
         <v>1</v>
       </c>
-      <c r="C8" t="s" s="18">
+      <c r="C8" t="s" s="19">
         <v>16</v>
       </c>
-      <c r="D8" t="s" s="19">
+      <c r="D8" t="s" s="20">
         <v>17</v>
       </c>
-      <c r="E8" t="s" s="19">
+      <c r="E8" t="s" s="21">
         <v>18</v>
       </c>
-      <c r="F8" t="s" s="9">
+      <c r="F8" t="s" s="22">
         <v>19</v>
       </c>
-      <c r="G8" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="H8" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="I8" t="s" s="19">
+      <c r="G8" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="J8" s="6"/>
+      <c r="H8" t="s" s="14">
+        <v>20</v>
+      </c>
+      <c r="I8" t="s" s="20">
+        <v>21</v>
+      </c>
+      <c r="J8" s="8"/>
     </row>
     <row r="9" ht="23" customHeight="1">
-      <c r="A9" t="s" s="10">
-        <v>21</v>
-      </c>
-      <c r="B9" s="17">
+      <c r="A9" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="B9" s="15">
         <v>2</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" t="s" s="20">
+      <c r="C9" s="16"/>
+      <c r="D9" t="s" s="23">
         <v>6</v>
       </c>
-      <c r="E9" t="s" s="20">
+      <c r="E9" t="s" s="24">
         <v>7</v>
       </c>
-      <c r="F9" t="s" s="9">
+      <c r="F9" t="s" s="11">
         <v>8</v>
       </c>
-      <c r="G9" t="s" s="20">
+      <c r="G9" t="s" s="23">
         <v>9</v>
       </c>
-      <c r="H9" t="s" s="20">
+      <c r="H9" t="s" s="23">
         <v>10</v>
       </c>
-      <c r="I9" t="s" s="20">
+      <c r="I9" t="s" s="23">
         <v>11</v>
       </c>
-      <c r="J9" t="s" s="9">
+      <c r="J9" t="s" s="11">
         <v>12</v>
       </c>
     </row>
     <row r="10" ht="23" customHeight="1">
-      <c r="A10" t="s" s="10">
-        <v>22</v>
-      </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="21">
+      <c r="A10" t="s" s="12">
+        <v>23</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="25">
         <v>41333</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="8">
         <v>6</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="8">
         <v>7</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="8">
         <v>8</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="8">
         <v>9</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="8">
         <v>10</v>
       </c>
-      <c r="I10" s="22">
+      <c r="I10" s="8">
         <v>11</v>
       </c>
-      <c r="J10" s="22">
+      <c r="J10" s="8">
         <v>12</v>
       </c>
     </row>
     <row r="11" ht="23" customHeight="1">
-      <c r="A11" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
+      <c r="A11" t="s" s="12">
+        <v>24</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
     </row>
     <row r="12" ht="23" customHeight="1">
-      <c r="A12" t="s" s="10">
-        <v>24</v>
-      </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
+      <c r="A12" t="s" s="12">
+        <v>25</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
     </row>
     <row r="13" ht="23" customHeight="1">
-      <c r="A13" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
+      <c r="A13" t="s" s="12">
+        <v>26</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
     </row>
     <row r="14" ht="23" customHeight="1">
-      <c r="A14" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
+      <c r="A14" t="s" s="12">
+        <v>27</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
     </row>
     <row r="15" ht="23" customHeight="1">
-      <c r="A15" t="s" s="10">
-        <v>27</v>
-      </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
+      <c r="A15" t="s" s="12">
+        <v>28</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
     </row>
     <row r="16" ht="23" customHeight="1">
-      <c r="A16" s="10"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
+      <c r="A16" t="s" s="12">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s" s="12">
+        <v>30</v>
+      </c>
+      <c r="C16" s="27"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+    </row>
+    <row r="17" ht="23" customHeight="1">
+      <c r="A17" t="s" s="12">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s" s="12">
+        <v>30</v>
+      </c>
+      <c r="C17" s="29"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+    </row>
+    <row r="18" ht="23" customHeight="1">
+      <c r="A18" t="s" s="12">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s" s="12">
+        <v>30</v>
+      </c>
+      <c r="C18" s="29"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+    </row>
+    <row r="19" ht="23" customHeight="1">
+      <c r="A19" t="s" s="31">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s" s="12">
+        <v>30</v>
+      </c>
+      <c r="C19" s="29"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+    </row>
+    <row r="20" ht="23" customHeight="1">
+      <c r="A20" t="s" s="32">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s" s="12">
+        <v>30</v>
+      </c>
+      <c r="C20" s="29"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+    </row>
+    <row r="21" ht="23" customHeight="1">
+      <c r="A21" t="s" s="32">
+        <v>35</v>
+      </c>
+      <c r="B21" s="15"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+    </row>
+    <row r="22" ht="23" customHeight="1">
+      <c r="A22" t="s" s="32">
+        <v>36</v>
+      </c>
+      <c r="B22" s="15"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+    </row>
+    <row r="23" ht="23" customHeight="1">
+      <c r="A23" t="s" s="32">
+        <v>37</v>
+      </c>
+      <c r="B23" s="15"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+    </row>
+    <row r="24" ht="23" customHeight="1">
+      <c r="A24" t="s" s="32">
+        <v>38</v>
+      </c>
+      <c r="B24" s="15"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+    </row>
+    <row r="25" ht="23" customHeight="1">
+      <c r="A25" t="s" s="32">
+        <v>39</v>
+      </c>
+      <c r="B25" s="15"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+    </row>
+    <row r="26" ht="23" customHeight="1">
+      <c r="A26" t="s" s="32">
+        <v>40</v>
+      </c>
+      <c r="B26" s="15"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+    </row>
+    <row r="27" ht="23" customHeight="1">
+      <c r="A27" t="s" s="32">
+        <v>41</v>
+      </c>
+      <c r="B27" s="15"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+    </row>
+    <row r="28" ht="23" customHeight="1">
+      <c r="A28" t="s" s="33">
+        <v>42</v>
+      </c>
+      <c r="B28" s="15"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
